--- a/biology/Microbiologie/Antiport/Antiport.xlsx
+++ b/biology/Microbiologie/Antiport/Antiport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un antiport (aussi appelé contre-transporteur) est une protéine intégrale de membrane qui est impliquée dans le transport actif secondaire de deux ou plusieurs molécules ou ions différents à travers une membrane phospholipidique telle que la membrane plasmique, dans des sens opposés.
 Dans le transport actif secondaire, un type de soluté traverse la membrane dans le sens de son gradient électrochimique permettant ainsi à un soluté d'un autre type de se déplacer en allant à l'encontre de son gradient de concentration.
